--- a/test_data/proposed.xlsx
+++ b/test_data/proposed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aidan/Desktop/github-repos/ECE_Graduation_Validation/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B658756-9611-A04D-B8D0-7B0038B5AB0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B9852-CB53-1345-869B-9FD1877DE3DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{CCDFA643-959F-9442-8EA0-FAAE03167BCD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{CCDFA643-959F-9442-8EA0-FAAE03167BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,9 +592,6 @@
     <t>Tech. Writing</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected Graduation Date (ex. SP24):  </t>
-  </si>
-  <si>
     <t>This is to certify, to the best of my knowledge, that my graduation checklist is correct. I further understand that it is my sole responsibility to verify that this information is documented on my official record with the University Registrar. If this proves not to be true, I understand that my graduation will be delayed.</t>
   </si>
   <si>
@@ -826,6 +823,9 @@
       </rPr>
       <t xml:space="preserve"> courses totaling at least 18 credits and covering at least three categories are required, including at least two courses at the 2000-level or above. Indicate categories in the Category column.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Graduation Term (ex. SP24):  </t>
   </si>
 </sst>
 </file>
@@ -1237,22 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,112 +1262,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,7 +1459,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D3CE3-D47A-0540-A132-E9BE2E056D06}">
   <dimension ref="A4:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1786,984 +1786,997 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="22" thickBot="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="20" thickBot="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="F6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1"/>
     <row r="8" spans="1:9" ht="20" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="10" spans="1:9" ht="20" thickBot="1">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickTop="1" thickBot="1">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" thickTop="1">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="20"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <v>4</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
         <v>4</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
         <v>4</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
         <v>4</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="10">
         <v>4</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="3:7" ht="17" thickBot="1">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="3:7" ht="17" thickTop="1"/>
     <row r="26" spans="3:7" ht="20" thickBot="1">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="3:7" ht="21" thickTop="1" thickBot="1">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="17" thickTop="1">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="8">
         <v>4</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="20"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="10">
         <v>4</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="10">
         <v>4</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="10">
         <v>4</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="10">
         <v>4</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="21"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="10">
         <v>4</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="3:8" ht="17" thickBot="1">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <v>4</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="3:8" ht="17" thickTop="1"/>
     <row r="36" spans="3:8" ht="20" thickBot="1">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="3:8" ht="21" thickTop="1" thickBot="1">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="17" thickTop="1">
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8">
         <v>4</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="20"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="21"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="21"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="21"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="3:8" ht="17" thickBot="1">
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="22"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="3:8" ht="17" thickTop="1"/>
     <row r="45" spans="3:8" ht="20" thickBot="1">
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="3:8" ht="21" thickTop="1" thickBot="1">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="17" thickTop="1">
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8">
         <v>3</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="20" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="3:8">
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10">
         <v>3</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="21" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="3:8">
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="21"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="3:8">
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="21"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="3:8">
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="21"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="21"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="3:8">
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="21"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="3:8">
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="21"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="3:8">
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="21" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="3:8">
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="21" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="3:8">
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="21" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="17" thickBot="1">
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12">
         <v>3</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="22" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="17" thickTop="1"/>
     <row r="60" spans="3:8" ht="20" thickBot="1">
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
     </row>
     <row r="61" spans="3:8" ht="21" thickTop="1" thickBot="1">
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="17" thickTop="1">
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="20"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="63" spans="3:8">
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="21"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="3:8">
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="21"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="21"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="2:8" ht="17" thickBot="1">
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="22"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="2:8" ht="17" thickTop="1"/>
     <row r="68" spans="2:8" ht="19">
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" spans="2:8" ht="17" thickBot="1">
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
     </row>
     <row r="70" spans="2:8" ht="17" thickBot="1">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3"/>
+      <c r="D70" s="2"/>
       <c r="F70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="2:8" ht="17" thickBot="1"/>
     <row r="72" spans="2:8" ht="17" thickBot="1">
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="74" spans="2:8" ht="16" customHeight="1">
+      <c r="B74" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="74" spans="2:8" ht="16" customHeight="1">
-      <c r="B74" s="26" t="s">
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+    </row>
+    <row r="77" spans="2:8" ht="17" thickBot="1">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+    </row>
+    <row r="78" spans="2:8" ht="17" thickBot="1">
+      <c r="C78" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" spans="2:8" ht="17" thickBot="1">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-    </row>
-    <row r="78" spans="2:8" ht="17" thickBot="1">
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="45"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="23" t="s">
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="81" spans="2:8" ht="20" thickBot="1">
+      <c r="C81" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+    </row>
+    <row r="82" spans="2:8" ht="17" thickTop="1">
+      <c r="C82" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G78" s="28"/>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-    </row>
-    <row r="81" spans="2:8" ht="20" thickBot="1">
-      <c r="C81" s="18" t="s">
+      <c r="D82" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-    </row>
-    <row r="82" spans="2:8" ht="17" thickTop="1">
-      <c r="C82" s="39" t="s">
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="C83" s="43"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="C84" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="30"/>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="C83" s="40"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="33"/>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="C84" s="31" t="s">
+      <c r="D84" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="39"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="C85" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="35"/>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="C85" s="31" t="s">
+      <c r="D85" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="C86" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="35"/>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="C86" s="31" t="s">
+      <c r="D86" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="39"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="C87" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="C87" s="31" t="s">
+      <c r="D87" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="39"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="C88" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="35"/>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="C88" s="31" t="s">
+      <c r="D88" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="39"/>
+    </row>
+    <row r="89" spans="2:8" ht="17" thickBot="1">
+      <c r="C89" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="35"/>
-    </row>
-    <row r="89" spans="2:8" ht="17" thickBot="1">
-      <c r="C89" s="36" t="s">
+      <c r="D89" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="38"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="41"/>
     </row>
     <row r="90" spans="2:8" ht="17" thickTop="1"/>
     <row r="91" spans="2:8" ht="20" thickBot="1">
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+    </row>
+    <row r="92" spans="2:8" ht="17" thickTop="1">
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
+      <c r="C92" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="2:8" ht="17" thickTop="1">
-      <c r="B92" s="12">
-        <v>1</v>
-      </c>
-      <c r="C92" s="41" t="s">
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="25">
+        <v>2</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="2:8" ht="19" customHeight="1">
+      <c r="B94" s="26"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="32"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="9">
+        <v>3</v>
+      </c>
+      <c r="C95" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="42"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="47">
-        <v>2</v>
-      </c>
-      <c r="C93" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="51"/>
-    </row>
-    <row r="94" spans="2:8" ht="19" customHeight="1">
-      <c r="B94" s="48"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="54"/>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="14">
-        <v>3</v>
-      </c>
-      <c r="C95" s="43" t="s">
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="9">
+        <v>4</v>
+      </c>
+      <c r="C96" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="14">
-        <v>4</v>
-      </c>
-      <c r="C96" s="43" t="s">
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="25">
+        <v>5</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="26"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="32"/>
+    </row>
+    <row r="99" spans="2:8" ht="17" thickBot="1">
+      <c r="B99" s="11">
+        <v>6</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="44"/>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="47">
-        <v>5</v>
-      </c>
-      <c r="C97" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="51"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="48"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="54"/>
-    </row>
-    <row r="99" spans="2:8" ht="17" thickBot="1">
-      <c r="B99" s="16">
-        <v>6</v>
-      </c>
-      <c r="C99" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="46"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" spans="2:8" ht="17" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:H98"/>
-    <mergeCell ref="C93:H94"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B74:H76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="D82:G83"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="C92:H92"/>
     <mergeCell ref="C95:H95"/>
@@ -2773,24 +2786,11 @@
     <mergeCell ref="D87:G87"/>
     <mergeCell ref="D88:G88"/>
     <mergeCell ref="D89:G89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B74:H76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="D82:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:H98"/>
+    <mergeCell ref="C93:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/test_data/proposed.xlsx
+++ b/test_data/proposed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aidan/Desktop/github-repos/ECE_Graduation_Validation/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B9852-CB53-1345-869B-9FD1877DE3DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80436710-6D20-EE42-B638-450B712A4BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{CCDFA643-959F-9442-8EA0-FAAE03167BCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>Graduation Checklist</t>
   </si>
@@ -826,6 +826,22 @@
   </si>
   <si>
     <t xml:space="preserve">Expected Graduation Term (ex. SP24):  </t>
+  </si>
+  <si>
+    <r>
+      <t>REQ-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OTE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1345,6 +1361,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1354,9 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1368,9 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1770,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D3CE3-D47A-0540-A132-E9BE2E056D06}">
-  <dimension ref="A4:I100"/>
+  <dimension ref="A4:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2343,7 +2359,7 @@
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="9" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -2355,7 +2371,7 @@
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="9" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -2367,7 +2383,7 @@
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="9" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -2377,252 +2393,255 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="17" thickBot="1">
-      <c r="C58" s="11" t="s">
+    <row r="58" spans="3:8">
+      <c r="C58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="17" thickBot="1">
+      <c r="C61" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12">
         <v>3</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="16" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="17" thickTop="1"/>
-    <row r="60" spans="3:8" ht="20" thickBot="1">
-      <c r="C60" s="33" t="s">
+    <row r="62" spans="3:8" ht="17" thickTop="1"/>
+    <row r="63" spans="3:8" ht="20" thickBot="1">
+      <c r="C63" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-    </row>
-    <row r="61" spans="3:8" ht="21" thickTop="1" thickBot="1">
-      <c r="C61" s="4" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="3:8" ht="21" thickTop="1" thickBot="1">
+      <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="17" thickTop="1">
-      <c r="C62" s="7" t="s">
+    <row r="65" spans="2:8" ht="17" thickTop="1">
+      <c r="C65" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="9" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="C66" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="9" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="C67" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="C65" s="9" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="C68" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="2:8" ht="17" thickBot="1">
-      <c r="C66" s="11" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="2:8" ht="17" thickBot="1">
+      <c r="C69" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="2:8" ht="17" thickTop="1"/>
-    <row r="68" spans="2:8" ht="19">
-      <c r="C68" s="33" t="s">
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="2:8" ht="17" thickTop="1"/>
+    <row r="71" spans="2:8" ht="19">
+      <c r="C71" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-    </row>
-    <row r="69" spans="2:8" ht="17" thickBot="1">
-      <c r="C69" s="50" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="2:8" ht="17" thickBot="1">
+      <c r="C72" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-    </row>
-    <row r="70" spans="2:8" ht="17" thickBot="1">
-      <c r="C70" s="1" t="s">
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+    </row>
+    <row r="73" spans="2:8" ht="17" thickBot="1">
+      <c r="C73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="F70" s="1" t="s">
+      <c r="D73" s="2"/>
+      <c r="F73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:8" ht="17" thickBot="1"/>
-    <row r="72" spans="2:8" ht="17" thickBot="1">
-      <c r="C72" s="45" t="s">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" ht="17" thickBot="1"/>
+    <row r="75" spans="2:8" ht="17" thickBot="1">
+      <c r="C75" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="74" spans="2:8" ht="16" customHeight="1">
-      <c r="B74" s="44" t="s">
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="77" spans="2:8" ht="16" customHeight="1">
+      <c r="B77" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-    </row>
-    <row r="77" spans="2:8" ht="17" thickBot="1">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="2:8" ht="17" thickBot="1">
-      <c r="C78" s="45" t="s">
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+    </row>
+    <row r="80" spans="2:8" ht="17" thickBot="1">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+    </row>
+    <row r="81" spans="2:8" ht="17" thickBot="1">
+      <c r="C81" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="45"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="17" t="s">
+      <c r="D81" s="43"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G78" s="20"/>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-    </row>
-    <row r="81" spans="2:8" ht="20" thickBot="1">
-      <c r="C81" s="33" t="s">
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+    </row>
+    <row r="84" spans="2:8" ht="20" thickBot="1">
+      <c r="C84" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-    </row>
-    <row r="82" spans="2:8" ht="17" thickTop="1">
-      <c r="C82" s="42" t="s">
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+    </row>
+    <row r="85" spans="2:8" ht="17" thickTop="1">
+      <c r="C85" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D85" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="C83" s="43"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="49"/>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="C84" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="39"/>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="C85" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="39"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="48"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="C86" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="39"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="50"/>
     </row>
     <row r="87" spans="2:8">
       <c r="C87" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -2630,133 +2649,166 @@
     </row>
     <row r="88" spans="2:8">
       <c r="C88" s="21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="39"/>
     </row>
-    <row r="89" spans="2:8" ht="17" thickBot="1">
-      <c r="C89" s="22" t="s">
+    <row r="89" spans="2:8">
+      <c r="C89" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="39"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="C90" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="39"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="C91" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="39"/>
+    </row>
+    <row r="92" spans="2:8" ht="17" thickBot="1">
+      <c r="C92" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D92" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="41"/>
-    </row>
-    <row r="90" spans="2:8" ht="17" thickTop="1"/>
-    <row r="91" spans="2:8" ht="20" thickBot="1">
-      <c r="C91" s="33" t="s">
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="41"/>
+    </row>
+    <row r="93" spans="2:8" ht="17" thickTop="1"/>
+    <row r="94" spans="2:8" ht="20" thickBot="1">
+      <c r="C94" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-    </row>
-    <row r="92" spans="2:8" ht="17" thickTop="1">
-      <c r="B92" s="7">
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+    </row>
+    <row r="95" spans="2:8" ht="17" thickTop="1">
+      <c r="B95" s="7">
         <v>1</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C95" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="35"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="25">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="35"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="25">
         <v>2</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C96" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="29"/>
-    </row>
-    <row r="94" spans="2:8" ht="19" customHeight="1">
-      <c r="B94" s="26"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="32"/>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="9">
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" spans="2:8" ht="19" customHeight="1">
+      <c r="B97" s="26"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="32"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="9">
         <v>3</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C98" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="37"/>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="9">
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="9">
         <v>4</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C99" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="37"/>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="25">
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="25">
         <v>5</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C100" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="29"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="26"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="32"/>
-    </row>
-    <row r="99" spans="2:8" ht="17" thickBot="1">
-      <c r="B99" s="11">
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="29"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="26"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="32"/>
+    </row>
+    <row r="102" spans="2:8" ht="17" thickBot="1">
+      <c r="B102" s="11">
         <v>6</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C102" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="2:8" ht="17" thickTop="1"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="2:8" ht="17" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A4:I4"/>
@@ -2764,33 +2816,33 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C75:E75"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B74:H76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="D82:G83"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B77:H79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="D85:G86"/>
+    <mergeCell ref="C94:G94"/>
     <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
     <mergeCell ref="D88:G88"/>
     <mergeCell ref="D89:G89"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:H98"/>
-    <mergeCell ref="C93:H94"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:H101"/>
+    <mergeCell ref="C96:H97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/test_data/proposed.xlsx
+++ b/test_data/proposed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aidan/Desktop/github-repos/ECE_Graduation_Validation/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC275CC-07B1-7F43-9003-6CAF107F97E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC45CCE-A9E6-484E-A135-06AE2F374F45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{CCDFA643-959F-9442-8EA0-FAAE03167BCD}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE08D8E"/>
+        <fgColor rgb="FFDFC5FE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,15 +621,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,7 +674,37 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -710,19 +731,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -731,22 +740,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,6 +757,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDFC5FE"/>
       <color rgb="FFE08D8E"/>
       <color rgb="FFB31B1B"/>
     </mruColors>
@@ -1071,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D3CE3-D47A-0540-A132-E9BE2E056D06}">
   <dimension ref="A2:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1092,20 +1093,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="22" thickBot="1">
       <c r="A3" s="2"/>
@@ -1119,1545 +1120,1538 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="20" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="47"/>
-      <c r="H4" s="9" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="20" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40"/>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="20" thickBot="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="27" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:12" ht="21" thickTop="1" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickTop="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>4</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="11"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="G11" s="15" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="11"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="G13" s="15" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="G13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="11"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="17" thickBot="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="G14" s="16" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="17" thickTop="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="20" thickBot="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="G16" s="27" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="21" thickTop="1" thickBot="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="G17" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" thickTop="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="14" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="10" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="G19" s="15" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="11" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="G20" s="15" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="11"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="17" thickBot="1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="12"/>
-      <c r="G21" s="15" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="G21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="11"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="17" thickTop="1">
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="11"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="20" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="G23" s="15" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="G23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="11"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="21" thickTop="1" thickBot="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="11"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="17" thickTop="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
-      <c r="G25" s="15" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="G25" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="11"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="11"/>
-      <c r="G26" s="15" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="11" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>4</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="11"/>
-      <c r="G27" s="15" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="G27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="11" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="11"/>
-      <c r="G28" s="15" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="8"/>
+      <c r="G28" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="11" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>4</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11"/>
-      <c r="G29" s="15" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="11" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="15" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="G30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="11" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>4</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="12"/>
-      <c r="G31" s="15" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="11" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" thickTop="1" thickBot="1">
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="5">
         <v>3</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="12" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="21" thickTop="1" thickBot="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:13" ht="21" thickTop="1" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="20"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:13" ht="17" customHeight="1" thickTop="1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="7"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="16" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="11"/>
-      <c r="G36" s="41" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="11"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="11"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:13" ht="17" thickBot="1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="12"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="9"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
     </row>
     <row r="40" spans="1:13" ht="18" thickTop="1" thickBot="1">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:13" ht="21" thickTop="1" thickBot="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="1:13" ht="18" thickTop="1" thickBot="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="G42" s="42" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="G42" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="40"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="1:13" ht="18" thickTop="1" thickBot="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="G43" s="42" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="G43" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="40"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="1:13" ht="18" thickTop="1" thickBot="1">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:13" ht="18" thickTop="1" thickBot="1">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:13" ht="17" thickTop="1"/>
     <row r="47" spans="1:13" ht="19">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="14"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="26"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="16" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
     </row>
     <row r="50" spans="1:13" ht="16" customHeight="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="23"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="23"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:13" ht="16" customHeight="1">
-      <c r="A53" s="23"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="23"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
     </row>
     <row r="55" spans="1:13" ht="17" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="B60" s="17"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="17"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
     </row>
     <row r="71" spans="2:13">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
     </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="17"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
     </row>
     <row r="74" spans="2:13" ht="16" customHeight="1">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
     </row>
     <row r="76" spans="2:13">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="17"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="17"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
     </row>
     <row r="81" spans="2:13" ht="19">
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="17"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="17"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
     </row>
     <row r="84" spans="2:13">
-      <c r="B84" s="17"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
     </row>
     <row r="85" spans="2:13">
-      <c r="B85" s="17"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
     </row>
     <row r="86" spans="2:13">
-      <c r="B86" s="17"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
     </row>
     <row r="87" spans="2:13">
-      <c r="B87" s="17"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
     </row>
     <row r="88" spans="2:13">
-      <c r="B88" s="17"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
     </row>
     <row r="89" spans="2:13">
-      <c r="B89" s="17"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
     </row>
     <row r="91" spans="2:13" ht="19">
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
     </row>
     <row r="92" spans="2:13">
-      <c r="B92" s="17"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
     </row>
     <row r="93" spans="2:13">
-      <c r="B93" s="21"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
     </row>
     <row r="94" spans="2:13" ht="19" customHeight="1">
-      <c r="B94" s="21"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
     </row>
     <row r="95" spans="2:13">
-      <c r="B95" s="17"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="17"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="21"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="21"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="17"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:L4"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="G34:I34"/>
@@ -2674,6 +2668,13 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
